--- a/info/soea/analyze_np.xlsx
+++ b/info/soea/analyze_np.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5772" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="D10" sheetId="4" r:id="rId1"/>
-    <sheet name="D30" sheetId="5" r:id="rId2"/>
-    <sheet name="D10F01" sheetId="1" r:id="rId3"/>
-    <sheet name="D30F01" sheetId="2" r:id="rId4"/>
-    <sheet name="D50F01" sheetId="3" r:id="rId5"/>
+    <sheet name="NP" sheetId="6" r:id="rId1"/>
+    <sheet name="D10" sheetId="4" r:id="rId2"/>
+    <sheet name="D30" sheetId="5" r:id="rId3"/>
+    <sheet name="D50" sheetId="7" r:id="rId4"/>
+    <sheet name="D10F01" sheetId="1" r:id="rId5"/>
+    <sheet name="D30F01" sheetId="2" r:id="rId6"/>
+    <sheet name="D50F01" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="6">
   <si>
     <t>Min</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,6 +100,15 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -122,12 +133,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -145,7 +171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -175,6 +201,30 @@
     </xf>
     <xf numFmtId="11" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -230,10 +280,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Solution errors for D=10</a:t>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>DE/rand/1/bin (F=0.7, CR=0.5)</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1024,11 +1078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="276885328"/>
-        <c:axId val="276885888"/>
+        <c:axId val="272725456"/>
+        <c:axId val="272726016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="276885328"/>
+        <c:axId val="272725456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,7 +1177,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1142,7 +1196,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276885888"/>
+        <c:crossAx val="272726016"/>
         <c:crossesAt val="1.0000000000000005E-8"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1150,10 +1204,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="276885888"/>
+        <c:axId val="272726016"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1176,6 +1230,12 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="900" b="0" i="0" u="none" strike="noStrike" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Normalized </a:t>
+                </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-TW"/>
                   <a:t>Solution Error (D=10)</a:t>
@@ -1251,7 +1311,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276885328"/>
+        <c:crossAx val="272725456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1353,6 +1413,2472 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1" i="0" cap="all" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>DE/rand/1/bin (F=0.7, CR=0.5)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'D30'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'D30'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'D30'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.05171451866127E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0014205928555801E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0000000016406699E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0000000000724801E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.00000000000282E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.00000000045294E-8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.00000325372366E-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.00001861576173E-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.00031582880423E-8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5973079904477199E-8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.41211368812681E-8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6601362273812801E-8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6952878435182298E-8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3849180010505603E-8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0002660372770301E-8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.06749358062309E-7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.01207623563867E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'D30'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1st quartile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'D30'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'D30'!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.361305399949432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1275995036088799E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.24558375431212E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.10272856770274E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1512888894923703E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8378499406908296E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3006986737739193E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5737415335887199E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2724967964004401E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1005655352119603E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3093991444079E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.55275288836846E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0993431302577103E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.1266461621239595E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.114006210834765</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13258092626842299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.150702039664348</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.165871321958004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'D30'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'D30'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'D30'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.58020067987758694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26325451716966303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13426968036947401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.104222962774245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7829488301027306E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8481426046202294E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3914039039358304E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.18935848144699E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9369825079493301E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5950224429998995E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10701171791299401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12640834526139</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15764639690823801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.176112941081872</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.18911381955533799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22706409071320299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26827084787385802</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.31377063084426898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'D30'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3rd quartile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'D30'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'D30'!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.77050513607751903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63952434670563596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63018989735794395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61656617811466896</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55164941347225804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53169843985620302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44855915011376701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41238703143329902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38944806410294902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41513464514733001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.396144398178086</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39586471335094803</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40359205376367902</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43662608273109799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46603302994648799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46618730530804903</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50031849176046705</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.552864950273801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'D30'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'D30'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'D30'!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99999999999995304</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99997840091303503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="272731056"/>
+        <c:axId val="272731616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="272731056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>NP</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="272731616"/>
+        <c:crossesAt val="1.0000000000000005E-8"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="272731616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Normalized Solution Error (D=30)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="272731056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>DE/rand/1/bin (F=0.7, CR=0.5)</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'D50'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'D50'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'D50'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.05360937355614E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0000792951215601E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0000000006332299E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.00000015933674E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0000097159448499E-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.00000000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0000097159448499E-8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0000097159448499E-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.00000373383679E-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6831734091616999E-8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5445631430871199E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5921879207036302E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1522359060417399E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.24553050418269E-8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.15288032776377E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.00021438387929E-8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.18356390585769E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3308255300842897E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'D50'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1st quartile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'D50'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'D50'!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.46003837540070602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6560572711736298E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4569729358838599E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.45697293585887E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4569729358584801E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4569729358581899E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6170399119805999E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.52894761997151E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3212582102490899E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.62454788439606E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.89325861354461E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2738123601986401E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4344962493632898E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7305661779674699E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0542430281417193E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12864483839058799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.18469299589418001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.22748375151099701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'D50'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'D50'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'D50'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.66506382941188102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34109681040377698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.192157788318364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12505505653804599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15241055094570399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.168705227974001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16702388853274999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.145199996164564</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.112706270552296</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13790262602826001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15377276287144601</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18573525139484601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21688991961585499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23531686664495499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25686123216805101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30522851117458</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34412301003106299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.38983155105436101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'D50'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3rd quartile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'D50'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'D50'!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.81418102589386798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65576969430918197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67652964883503497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65763923398303403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63531889885405501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58786594633929201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54238629647525605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48107247531625702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50051993317997301</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44436117335748898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40460085794455403</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41678782018244098</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40875723138798797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42942070349169997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46372532282829099</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50649656683571398</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48951645013640799</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.52594400239772798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'D50'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'D50'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2775</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'D50'!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86531607654904097</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99999999999976397</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.88564972690880694</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94206332970749096</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97574314332694501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="279811216"/>
+        <c:axId val="279811776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="279811216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>NP</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="eaVert" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279811776"/>
+        <c:crossesAt val="1.0000000000000005E-8"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="279811776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="900" b="0" i="0" u="none" strike="noStrike" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Normalized </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Solution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+                  <a:t> Error (D=50)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279811216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1381,7 +3907,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2167,11 +4692,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212565344"/>
-        <c:axId val="212568704"/>
+        <c:axId val="279613952"/>
+        <c:axId val="279614512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212565344"/>
+        <c:axId val="279613952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,7 +4729,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2271,7 +4795,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212568704"/>
+        <c:crossAx val="279614512"/>
         <c:crossesAt val="1.0000000000000005E-8"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2279,7 +4803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212568704"/>
+        <c:axId val="279614512"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2331,7 +4855,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212565344"/>
+        <c:crossAx val="279613952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2345,7 +4869,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2412,7 +4935,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -2427,7 +4950,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3213,11 +5735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212563104"/>
-        <c:axId val="211102528"/>
+        <c:axId val="279932928"/>
+        <c:axId val="279933488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212563104"/>
+        <c:axId val="279932928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3260,7 +5782,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211102528"/>
+        <c:crossAx val="279933488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3268,7 +5790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211102528"/>
+        <c:axId val="279933488"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3320,7 +5842,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212563104"/>
+        <c:crossAx val="279932928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3334,7 +5856,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3401,7 +5922,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -3416,7 +5937,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4202,11 +6722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="272329664"/>
-        <c:axId val="272330224"/>
+        <c:axId val="279938528"/>
+        <c:axId val="279939088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="272329664"/>
+        <c:axId val="279938528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4249,7 +6769,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272330224"/>
+        <c:crossAx val="279939088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4257,7 +6777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="272330224"/>
+        <c:axId val="279939088"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4309,7 +6829,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272329664"/>
+        <c:crossAx val="279938528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4323,7 +6843,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4550,6 +7069,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
@@ -5072,7 +7671,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5083,7 +7682,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -5106,18 +7705,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -5129,7 +7728,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5137,11 +7736,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -5173,35 +7772,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5213,30 +7822,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5258,15 +7871,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5281,15 +7892,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5300,17 +7911,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5319,10 +7929,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -5338,21 +7948,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5371,17 +7975,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5390,17 +7993,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5409,17 +8011,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5440,7 +8041,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -5448,147 +8049,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -5610,17 +8074,170 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -5632,7 +8249,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5640,11 +8257,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -5676,35 +8293,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5716,30 +8343,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5761,15 +8392,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5784,15 +8413,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5803,17 +8432,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5822,10 +8450,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -5841,21 +8469,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5874,17 +8496,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -5893,17 +8514,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5912,17 +8532,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -5943,7 +8562,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -5951,7 +8570,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5964,6 +8583,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -5971,10 +8601,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -5995,7 +8625,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6004,14 +8634,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6025,7 +8655,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -6041,8 +8671,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6058,6 +8688,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6065,14 +8706,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6580,19 +9215,1060 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6615,7 +10291,42 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6650,7 +10361,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6685,7 +10396,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6983,11 +10694,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>ROUND(1.5*A2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:A16" si="0">ROUND(1.5*A3,0)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>ROUND(1.5*A16,0)</f>
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>ROUND(1.5*A17,0)</f>
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f>ROUND(1.5*A18,0)</f>
+        <v>4163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7322,20 +11159,847 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1.05171451866127E-8</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.361305399949432</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.58020067987758694</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.77050513607751903</v>
+      </c>
+      <c r="F2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <f>ROUND(1.5*A2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1.0014205928555801E-8</v>
+      </c>
+      <c r="C3" s="13">
+        <v>3.1275995036088799E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.26325451716966303</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.63952434670563596</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <f t="shared" ref="A4:A16" si="0">ROUND(1.5*A3,0)</f>
+        <v>9</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1.0000000016406699E-8</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2.24558375431212E-4</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.13426968036947401</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.63018989735794395</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1.0000000000724801E-8</v>
+      </c>
+      <c r="C5" s="13">
+        <v>6.10272856770274E-5</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.104222962774245</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.61656617811466896</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1E-8</v>
+      </c>
+      <c r="C6" s="13">
+        <v>4.1512888894923703E-5</v>
+      </c>
+      <c r="D6" s="13">
+        <v>9.7829488301027306E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.55164941347225804</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B7" s="17">
+        <v>1.00000000000282E-8</v>
+      </c>
+      <c r="C7" s="17">
+        <v>5.8378499406908296E-6</v>
+      </c>
+      <c r="D7" s="17">
+        <v>8.8481426046202294E-2</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.53169843985620302</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B8" s="17">
+        <v>1.00000000045294E-8</v>
+      </c>
+      <c r="C8" s="17">
+        <v>8.3006986737739193E-6</v>
+      </c>
+      <c r="D8" s="17">
+        <v>8.3914039039358304E-2</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.44855915011376701</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B9" s="17">
+        <v>1.00000325372366E-8</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1.5737415335887199E-4</v>
+      </c>
+      <c r="D9" s="17">
+        <v>8.18935848144699E-2</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.41238703143329902</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1.00001861576173E-8</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2.2724967964004401E-3</v>
+      </c>
+      <c r="D10" s="17">
+        <v>8.9369825079493301E-2</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.38944806410294902</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1.00031582880423E-8</v>
+      </c>
+      <c r="C11" s="15">
+        <v>5.1005655352119603E-3</v>
+      </c>
+      <c r="D11" s="15">
+        <v>9.5950224429998995E-2</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.41513464514733001</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1.5973079904477199E-8</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1.3093991444079E-2</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.10701171791299401</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.396144398178086</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1.41211368812681E-8</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1.55275288836846E-2</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.12640834526139</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.39586471335094803</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <f t="shared" si="0"/>
+        <v>548</v>
+      </c>
+      <c r="B14" s="13">
+        <v>2.6601362273812801E-8</v>
+      </c>
+      <c r="C14" s="13">
+        <v>6.0993431302577103E-2</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.15764639690823801</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.40359205376367902</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <f t="shared" si="0"/>
+        <v>822</v>
+      </c>
+      <c r="B15" s="13">
+        <v>2.6952878435182298E-8</v>
+      </c>
+      <c r="C15" s="13">
+        <v>9.1266461621239595E-2</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.176112941081872</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.43662608273109799</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <f t="shared" si="0"/>
+        <v>1233</v>
+      </c>
+      <c r="B16" s="13">
+        <v>5.3849180010505603E-8</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.114006210834765</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.18911381955533799</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.46603302994648799</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <f>ROUND(1.5*A16,0)</f>
+        <v>1850</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1.0002660372770301E-8</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.13258092626842299</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0.22706409071320299</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.46618730530804903</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <f>ROUND(1.5*A17,0)</f>
+        <v>2775</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1.06749358062309E-7</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.150702039664348</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0.26827084787385802</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.50031849176046705</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.99999999999995304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <f>ROUND(1.5*A18,0)</f>
+        <v>4163</v>
+      </c>
+      <c r="B19" s="13">
+        <v>1.01207623563867E-7</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.165871321958004</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0.31377063084426898</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.552864950273801</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.99997840091303503</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1.05360937355614E-8</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.46003837540070602</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.66506382941188102</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.81418102589386798</v>
+      </c>
+      <c r="F2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <f>ROUND(1.5*A2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1.0000792951215601E-8</v>
+      </c>
+      <c r="C3" s="13">
+        <v>5.6560572711736298E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.34109681040377698</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.65576969430918197</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <f t="shared" ref="A4:A16" si="0">ROUND(1.5*A3,0)</f>
+        <v>9</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1.0000000006332299E-8</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1.4569729358838599E-3</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.192157788318364</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.67652964883503497</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1.00000015933674E-8</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1.45697293585887E-3</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.12505505653804599</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.65763923398303403</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1.0000097159448499E-8</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1.4569729358584801E-3</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.15241055094570399</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.63531889885405501</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1.00000000000002E-8</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1.4569729358581899E-3</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.168705227974001</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.58786594633929201</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B8" s="17">
+        <v>1.0000097159448499E-8</v>
+      </c>
+      <c r="C8" s="17">
+        <v>9.6170399119805999E-4</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.16702388853274999</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.54238629647525605</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B9" s="17">
+        <v>1.0000097159448499E-8</v>
+      </c>
+      <c r="C9" s="17">
+        <v>1.52894761997151E-3</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.145199996164564</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.48107247531625702</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B10" s="17">
+        <v>1.00000373383679E-8</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2.3212582102490899E-3</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.112706270552296</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.50051993317997301</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="B11" s="17">
+        <v>1.6831734091616999E-8</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1.62454788439606E-2</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.13790262602826001</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.44436117335748898</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1.5445631430871199E-6</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1.89325861354461E-2</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.15377276287144601</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.40460085794455403</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="B13" s="15">
+        <v>3.5921879207036302E-6</v>
+      </c>
+      <c r="C13" s="15">
+        <v>2.2738123601986401E-2</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.18573525139484601</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.41678782018244098</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <f t="shared" si="0"/>
+        <v>548</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1.1522359060417399E-5</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3.4344962493632898E-2</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.21688991961585499</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.40875723138798797</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <f t="shared" si="0"/>
+        <v>822</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1.24553050418269E-8</v>
+      </c>
+      <c r="C15" s="13">
+        <v>4.7305661779674699E-2</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0.23531686664495499</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.42942070349169997</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.86531607654904097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <f t="shared" si="0"/>
+        <v>1233</v>
+      </c>
+      <c r="B16" s="13">
+        <v>1.15288032776377E-4</v>
+      </c>
+      <c r="C16" s="13">
+        <v>8.0542430281417193E-2</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.25686123216805101</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.46372532282829099</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.99999999999976397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <f>ROUND(1.5*A16,0)</f>
+        <v>1850</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1.00021438387929E-8</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.12864483839058799</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0.30522851117458</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.50649656683571398</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.88564972690880694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <f>ROUND(1.5*A17,0)</f>
+        <v>2775</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1.18356390585769E-3</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.18469299589418001</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0.34412301003106299</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.48951645013640799</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.94206332970749096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <f>ROUND(1.5*A18,0)</f>
+        <v>4163</v>
+      </c>
+      <c r="B19" s="13">
+        <v>3.3308255300842897E-8</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.22748375151099701</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0.38983155105436101</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.52594400239772798</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.97574314332694501</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -7675,7 +12339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -8012,7 +12676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
